--- a/数据整理/stocks/港股/02328-中国财险.xlsx
+++ b/数据整理/stocks/港股/02328-中国财险.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.23</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.23</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02328-中国财险.xlsx
+++ b/数据整理/stocks/港股/02328-中国财险.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02328-中国财险.xlsx
+++ b/数据整理/stocks/港股/02328-中国财险.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>57.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02328-中国财险.xlsx
+++ b/数据整理/stocks/港股/02328-中国财险.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02328-中国财险.xlsx
+++ b/数据整理/stocks/港股/02328-中国财险.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.48</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3557</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.18</v>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02328-中国财险.xlsx
+++ b/数据整理/stocks/港股/02328-中国财险.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2217,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,17 +2229,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2248,14 +2269,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.49</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2264,14 +2307,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.48</v>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2280,14 +2345,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.18</v>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2296,14 +2383,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8616</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2312,13 +2421,1193 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8616</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02328-中国财险.xlsx
+++ b/数据整理/stocks/港股/02328-中国财险.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3490,7 +3491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3501,17 +3502,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3521,14 +3542,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.69</v>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1566</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3537,14 +3580,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.49</v>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3553,14 +3618,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.48</v>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3569,14 +3656,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.18</v>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0856</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3585,14 +3694,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0561</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3601,13 +3732,1399 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9675</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6913</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02328-中国财险.xlsx
+++ b/数据整理/stocks/港股/02328-中国财险.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>11.71</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>8.69</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>5.49</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>1.18</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -600,6 +617,1658 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6632</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013334</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华价值远航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013335</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华价值远航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +3768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3371,7 +5040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3997,7 +5666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4661,7 +6330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4869,7 +6538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5001,7 +6670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02328-中国财险.xlsx
+++ b/数据整理/stocks/港股/02328-中国财险.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>10.67</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>11.71</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>8.69</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>5.49</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>1.18</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -616,7 +633,1525 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012057</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011570</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013334</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华价值远航6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013485</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011571</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华鑫远价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012058</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013486</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>尚正竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013335</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华价值远航6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2268,7 +3803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3768,7 +5303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5040,7 +6575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5666,7 +7201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6330,7 +7865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6538,7 +8073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6668,136 +8203,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>